--- a/data/trans_orig/P19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>211725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>186678</v>
+        <v>188016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>237871</v>
+        <v>237996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2052153989061702</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1809377739325022</v>
+        <v>0.182234928364124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2305572006610615</v>
+        <v>0.2306778783128783</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>293</v>
@@ -765,19 +765,19 @@
         <v>296116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268216</v>
+        <v>266387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328249</v>
+        <v>324785</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2253225164425693</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2040926553687827</v>
+        <v>0.2027011601476887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2497732548551205</v>
+        <v>0.2471375429773711</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>509</v>
@@ -786,19 +786,19 @@
         <v>507842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>466319</v>
+        <v>469518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>548497</v>
+        <v>552933</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2164794802002616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1987795700508826</v>
+        <v>0.2001430866799556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2338098842397414</v>
+        <v>0.2357005654320566</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>819998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>793852</v>
+        <v>793727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>845045</v>
+        <v>843707</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7947846010938298</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7694427993389386</v>
+        <v>0.769322121687122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.819062226067498</v>
+        <v>0.8177650716358761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>997</v>
@@ -836,19 +836,19 @@
         <v>1018072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>985939</v>
+        <v>989403</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1045972</v>
+        <v>1047801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7746774835574307</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7502267451448795</v>
+        <v>0.7528624570226289</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7959073446312176</v>
+        <v>0.7972988398523112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1819</v>
@@ -857,19 +857,19 @@
         <v>1838069</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1797414</v>
+        <v>1792978</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1879592</v>
+        <v>1876393</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7835205197997384</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7661901157602585</v>
+        <v>0.7642994345679432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8012204299491174</v>
+        <v>0.799856913320044</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>433857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>397594</v>
+        <v>396708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>469284</v>
+        <v>472294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2563408052568708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2349151392458607</v>
+        <v>0.2343913226077795</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2772727994959037</v>
+        <v>0.279050840915832</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>577</v>
@@ -982,19 +982,19 @@
         <v>587427</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>551842</v>
+        <v>550234</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>627091</v>
+        <v>625451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3699924320974518</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3475789796873291</v>
+        <v>0.3465660674231973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3949746197113483</v>
+        <v>0.393941722231033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>997</v>
@@ -1003,19 +1003,19 @@
         <v>1021284</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>969578</v>
+        <v>961739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1074561</v>
+        <v>1071781</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3113505852731373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.295587224854349</v>
+        <v>0.293197508648216</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3275925915724712</v>
+        <v>0.3267452491508763</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1258644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1223217</v>
+        <v>1220207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1294907</v>
+        <v>1295793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7436591947431292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7227272005040958</v>
+        <v>0.720949159084168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7650848607541391</v>
+        <v>0.7656086773922205</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>977</v>
@@ -1053,19 +1053,19 @@
         <v>1000246</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>960582</v>
+        <v>962222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1035831</v>
+        <v>1037439</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6300075679025483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6050253802886517</v>
+        <v>0.6060582777689671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6524210203126708</v>
+        <v>0.6534339325768027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2205</v>
@@ -1074,19 +1074,19 @@
         <v>2258890</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2205613</v>
+        <v>2208393</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2310596</v>
+        <v>2318435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6886494147268627</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6724074084275281</v>
+        <v>0.6732547508491238</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7044127751456508</v>
+        <v>0.706802491351784</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>169336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148518</v>
+        <v>149865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191778</v>
+        <v>193972</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3070973102432251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2693432357765074</v>
+        <v>0.2717856792385818</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3477971456018503</v>
+        <v>0.3517764801548119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>166</v>
@@ -1199,19 +1199,19 @@
         <v>175453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155617</v>
+        <v>154742</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198447</v>
+        <v>197084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3682800734324123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3266438008850249</v>
+        <v>0.324808087587068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4165449498304148</v>
+        <v>0.4136847576340919</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -1220,19 +1220,19 @@
         <v>344789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>313611</v>
+        <v>315793</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>377627</v>
+        <v>376226</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.33545654870418</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3051226199412901</v>
+        <v>0.3072452805431553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3674059843751811</v>
+        <v>0.3660426565164864</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>382072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>359630</v>
+        <v>357436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>402890</v>
+        <v>401543</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6929026897567749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6522028543981497</v>
+        <v>0.648223519845188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7306567642234926</v>
+        <v>0.7282143207614182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -1270,19 +1270,19 @@
         <v>300959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277965</v>
+        <v>279328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320795</v>
+        <v>321670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6317199265675877</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5834550501695852</v>
+        <v>0.586315242365908</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6733561991149751</v>
+        <v>0.6751919124129317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -1291,19 +1291,19 @@
         <v>683031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>650193</v>
+        <v>651594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>714209</v>
+        <v>712027</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.66454345129582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6325940156248188</v>
+        <v>0.6339573434835136</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6948773800587098</v>
+        <v>0.6927547194568447</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>814918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2487820454285269</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1036</v>
@@ -1416,19 +1416,19 @@
         <v>1058996</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3134726511414416</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1839</v>
@@ -1437,19 +1437,19 @@
         <v>1873914</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.281626297462054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2460713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2408469</v>
+        <v>2410358</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2509064</v>
+        <v>2511277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7512179545714731</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7352688085694074</v>
+        <v>0.7358455471636501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7659788646673185</v>
+        <v>0.7666542993545989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2260</v>
@@ -1487,19 +1487,19 @@
         <v>2319276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2265327</v>
+        <v>2269184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2371338</v>
+        <v>2377274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6865273488585584</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6705577958468655</v>
+        <v>0.6716997136940813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.701938156768023</v>
+        <v>0.7036953861949803</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4670</v>
@@ -1508,19 +1508,19 @@
         <v>4779990</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4709638</v>
+        <v>4704781</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4853617</v>
+        <v>4849073</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7183737025379461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7078006893492216</v>
+        <v>0.7070708386755965</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7294390536280203</v>
+        <v>0.7287560509686304</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>159225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137097</v>
+        <v>137078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182031</v>
+        <v>182702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1635607695650154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.140829950447789</v>
+        <v>0.1408107764647634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1869879248060357</v>
+        <v>0.1876772469050227</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>286</v>
@@ -1872,19 +1872,19 @@
         <v>308782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>277733</v>
+        <v>278546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>341896</v>
+        <v>341740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2308140745044589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2076044100984088</v>
+        <v>0.2082126587864557</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2555667595853292</v>
+        <v>0.2554496624245958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>438</v>
@@ -1893,19 +1893,19 @@
         <v>468008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>425445</v>
+        <v>429622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>504761</v>
+        <v>509663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2024876230773359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1840725081577402</v>
+        <v>0.1858797339714393</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2183891512458328</v>
+        <v>0.2205103734157651</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>814268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>791462</v>
+        <v>790791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>836396</v>
+        <v>836415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8364392304349846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8130120751939645</v>
+        <v>0.8123227530949769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.859170049552211</v>
+        <v>0.8591892235352365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>961</v>
@@ -1943,19 +1943,19 @@
         <v>1029015</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>995901</v>
+        <v>996057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1060064</v>
+        <v>1059251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7691859254955411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7444332404146708</v>
+        <v>0.7445503375754042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7923955899015912</v>
+        <v>0.7917873412135443</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1716</v>
@@ -1964,19 +1964,19 @@
         <v>1843282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1806529</v>
+        <v>1801627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1885845</v>
+        <v>1881668</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7975123769226641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7816108487541672</v>
+        <v>0.7794896265842345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.81592749184226</v>
+        <v>0.8141202660285605</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>507349</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>467721</v>
+        <v>470940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>550709</v>
+        <v>551278</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2585094468825071</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2383177505474174</v>
+        <v>0.2399579255174173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2806026871314706</v>
+        <v>0.2808923713602478</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>541</v>
@@ -2089,19 +2089,19 @@
         <v>580277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538840</v>
+        <v>540130</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>620653</v>
+        <v>624895</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3302961270353475</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3067099349231985</v>
+        <v>0.3074445272198609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3532784231875589</v>
+        <v>0.3556927339113828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1028</v>
@@ -2110,19 +2110,19 @@
         <v>1087626</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1031638</v>
+        <v>1036704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1146013</v>
+        <v>1144979</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2924172011981372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2773644537351023</v>
+        <v>0.2787263847764916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3081151445185069</v>
+        <v>0.3078371828079944</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1455245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1411885</v>
+        <v>1411316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1494873</v>
+        <v>1491654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7414905531174929</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7193973128685296</v>
+        <v>0.7191076286397522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7616822494525827</v>
+        <v>0.7600420744825827</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1093</v>
@@ -2160,19 +2160,19 @@
         <v>1176561</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1136185</v>
+        <v>1131943</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1217998</v>
+        <v>1216708</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6697038729646525</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6467215768124419</v>
+        <v>0.6443072660886171</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6932900650768015</v>
+        <v>0.6925554727801385</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2461</v>
@@ -2181,19 +2181,19 @@
         <v>2631806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2573419</v>
+        <v>2574453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2687794</v>
+        <v>2682728</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7075827988018628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6918848554814935</v>
+        <v>0.6921628171920056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7226355462648978</v>
+        <v>0.7212736152235085</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>176273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154695</v>
+        <v>154484</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199562</v>
+        <v>199577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3663342880032315</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3214895860034602</v>
+        <v>0.3210514912261337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4147329780475311</v>
+        <v>0.4147642255721955</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -2306,19 +2306,19 @@
         <v>188829</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165483</v>
+        <v>167249</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210264</v>
+        <v>210068</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4117224991140049</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3608204558362787</v>
+        <v>0.364669252002061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4584594380131036</v>
+        <v>0.4580331565133325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>324</v>
@@ -2327,19 +2327,19 @@
         <v>365102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333259</v>
+        <v>331671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>398717</v>
+        <v>398680</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3884838593986397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3546016395989141</v>
+        <v>0.3529117392107209</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4242510802849364</v>
+        <v>0.4242120080215152</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>304908</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>281619</v>
+        <v>281604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>326486</v>
+        <v>326697</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6336657119967685</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5852670219524689</v>
+        <v>0.5852357744278045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6785104139965398</v>
+        <v>0.6789485087738664</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -2377,19 +2377,19 @@
         <v>269802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248367</v>
+        <v>248563</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>293148</v>
+        <v>291382</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5882775008859952</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5415405619868964</v>
+        <v>0.5419668434866675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6391795441637214</v>
+        <v>0.635330747997939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>526</v>
@@ -2398,19 +2398,19 @@
         <v>574711</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>541096</v>
+        <v>541133</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>606554</v>
+        <v>608142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6115161406013603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5757489197150636</v>
+        <v>0.575787991978485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6453983604010862</v>
+        <v>0.6470882607892791</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>842848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>794921</v>
+        <v>791346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>895013</v>
+        <v>895369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2466436592719755</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2326189085206884</v>
+        <v>0.2315727590631244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2619088983625932</v>
+        <v>0.2620130654504744</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>995</v>
@@ -2523,19 +2523,19 @@
         <v>1077888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1024593</v>
+        <v>1025591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1136210</v>
+        <v>1133879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3033513167688968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2883524652903057</v>
+        <v>0.2886331971842938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3197650642119134</v>
+        <v>0.3191089613502966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1790</v>
@@ -2544,19 +2544,19 @@
         <v>1920736</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1838879</v>
+        <v>1848369</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1998590</v>
+        <v>1995318</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2755506806645527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2638073705389998</v>
+        <v>0.2651689501659861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2867196754430411</v>
+        <v>0.2862503848525246</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2574421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2522256</v>
+        <v>2521900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2622348</v>
+        <v>2625923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7533563407280245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7380911016374068</v>
+        <v>0.7379869345495257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7673810914793116</v>
+        <v>0.7684272409368755</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2298</v>
@@ -2594,19 +2594,19 @@
         <v>2475378</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2417056</v>
+        <v>2419387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2528673</v>
+        <v>2527675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6966486832311033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6802349357880868</v>
+        <v>0.6808910386497037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7116475347096946</v>
+        <v>0.7113668028157063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4703</v>
@@ -2615,19 +2615,19 @@
         <v>5049799</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4971945</v>
+        <v>4975217</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5131656</v>
+        <v>5122166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7244493193354472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7132803245569588</v>
+        <v>0.7137496151474753</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7361926294609997</v>
+        <v>0.7348310498340139</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>129483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109862</v>
+        <v>109863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153469</v>
+        <v>151350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1716492732573148</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1456382074476274</v>
+        <v>0.145640442183533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2034458855684149</v>
+        <v>0.2006365241057971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>213</v>
@@ -2979,19 +2979,19 @@
         <v>231312</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204041</v>
+        <v>206465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>261231</v>
+        <v>259402</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2325533524925517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2051363667198655</v>
+        <v>0.2075733367304295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2626332409989769</v>
+        <v>0.2607948352336985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>342</v>
@@ -3000,19 +3000,19 @@
         <v>360795</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327539</v>
+        <v>328993</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396163</v>
+        <v>395789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.206285420331788</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1872712815237443</v>
+        <v>0.1881028601969714</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2265076277817695</v>
+        <v>0.2262937490146923</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>624864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>600878</v>
+        <v>602997</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>644485</v>
+        <v>644484</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8283507267426852</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7965541144315851</v>
+        <v>0.7993634758942029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8543617925523727</v>
+        <v>0.854359557816467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>679</v>
@@ -3050,19 +3050,19 @@
         <v>763348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>733429</v>
+        <v>735258</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>790619</v>
+        <v>788195</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7674466475074483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7373667590010228</v>
+        <v>0.7392051647663015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7948636332801344</v>
+        <v>0.7924266632695703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1312</v>
@@ -3071,19 +3071,19 @@
         <v>1388212</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352844</v>
+        <v>1353218</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1421468</v>
+        <v>1420014</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.793714579668212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7734923722182306</v>
+        <v>0.7737062509853077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8127287184762558</v>
+        <v>0.8118971398030286</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>645978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>604856</v>
+        <v>604086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>690012</v>
+        <v>691976</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3111070371437346</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2913023476761141</v>
+        <v>0.2909314471808291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3323143116379545</v>
+        <v>0.3332599562211921</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>730</v>
@@ -3196,19 +3196,19 @@
         <v>757879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>718283</v>
+        <v>712598</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>805715</v>
+        <v>802787</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.381169302650658</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3612548327563161</v>
+        <v>0.3583958617492698</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4052278335265161</v>
+        <v>0.4037554093942471</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1331</v>
@@ -3217,19 +3217,19 @@
         <v>1403857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1341036</v>
+        <v>1343816</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1463222</v>
+        <v>1468665</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3453790178776359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3299236392867642</v>
+        <v>0.3306077625973727</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3599840355680166</v>
+        <v>0.3613232858902643</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1430407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1386373</v>
+        <v>1384409</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1471529</v>
+        <v>1472299</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6888929628562653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6676856883620454</v>
+        <v>0.6667400437788076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7086976523238859</v>
+        <v>0.7090685528191709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1178</v>
@@ -3267,19 +3267,19 @@
         <v>1230421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1182585</v>
+        <v>1185513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1270017</v>
+        <v>1275702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.618830697349342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5947721664734843</v>
+        <v>0.596244590605753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.638745167243684</v>
+        <v>0.6416041382507305</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2529</v>
@@ -3288,19 +3288,19 @@
         <v>2660828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2601463</v>
+        <v>2596020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2723649</v>
+        <v>2720869</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6546209821223641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6400159644319831</v>
+        <v>0.6386767141097361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6700763607132357</v>
+        <v>0.6693922374026273</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>209930</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>186503</v>
+        <v>187074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232785</v>
+        <v>234518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3838637583514433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3410278980086146</v>
+        <v>0.3420707153322754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4256562002904359</v>
+        <v>0.4288235045122947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -3413,19 +3413,19 @@
         <v>227575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>201811</v>
+        <v>201383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>252036</v>
+        <v>249270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4144207262339607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3675045175768816</v>
+        <v>0.3667240681151844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4589642865469211</v>
+        <v>0.4539281361408259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>406</v>
@@ -3434,19 +3434,19 @@
         <v>437505</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>402901</v>
+        <v>405385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>468178</v>
+        <v>471524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3991736647889668</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3676012843223838</v>
+        <v>0.3698675299616398</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4271594019370772</v>
+        <v>0.4302118126027454</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>336956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314101</v>
+        <v>312368</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360383</v>
+        <v>359812</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6161362416485567</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5743437997095641</v>
+        <v>0.5711764954877053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6589721019913855</v>
+        <v>0.6579292846677246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -3484,19 +3484,19 @@
         <v>321565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297104</v>
+        <v>299870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>347329</v>
+        <v>347757</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5855792737660392</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5410357134530784</v>
+        <v>0.5460718638591741</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6324954824231181</v>
+        <v>0.6332759318848155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>621</v>
@@ -3505,19 +3505,19 @@
         <v>658522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627849</v>
+        <v>624503</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>693126</v>
+        <v>690642</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6008263352110331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5728405980629231</v>
+        <v>0.5697881873972549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6323987156776165</v>
+        <v>0.6301324700383603</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>985391</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>929708</v>
+        <v>929769</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1044270</v>
+        <v>1041590</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2917413574686981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2752556547987784</v>
+        <v>0.2752735322053394</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3091734109830441</v>
+        <v>0.3083799038024886</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1159</v>
@@ -3630,19 +3630,19 @@
         <v>1216765</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1158280</v>
+        <v>1162455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1273185</v>
+        <v>1276163</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3444878246056457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3279295697076693</v>
+        <v>0.3291116163686575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3604611561718813</v>
+        <v>0.3613042676673441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2079</v>
@@ -3651,19 +3651,19 @@
         <v>2202156</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2117943</v>
+        <v>2128715</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2278789</v>
+        <v>2281036</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3187042253129325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3065164930808172</v>
+        <v>0.3080755774130704</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3297948349028233</v>
+        <v>0.3301199309614725</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2392227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2333348</v>
+        <v>2336028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2447910</v>
+        <v>2447849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7082586425313019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6908265890169559</v>
+        <v>0.6916200961975113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7247443452012218</v>
+        <v>0.7247264677946605</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2167</v>
@@ -3701,19 +3701,19 @@
         <v>2315335</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2258915</v>
+        <v>2255937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2373820</v>
+        <v>2369645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6555121753943544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6395388438281187</v>
+        <v>0.6386957323326559</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6720704302923307</v>
+        <v>0.6708883836313425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4462</v>
@@ -3722,19 +3722,19 @@
         <v>4707562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4630929</v>
+        <v>4628682</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4791775</v>
+        <v>4781003</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6812957746870675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6702051650971768</v>
+        <v>0.6698800690385275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6934835069191828</v>
+        <v>0.6919244225869297</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>95575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78276</v>
+        <v>78786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113383</v>
+        <v>112022</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1668421082401962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1366444448957515</v>
+        <v>0.1375341265653243</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.197929333520122</v>
+        <v>0.1955536469261612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>230</v>
@@ -4086,19 +4086,19 @@
         <v>136045</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120430</v>
+        <v>119509</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>153897</v>
+        <v>153234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1681106614543244</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1488155623459991</v>
+        <v>0.1476781900800563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1901704785231802</v>
+        <v>0.189352059717604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>340</v>
@@ -4107,19 +4107,19 @@
         <v>231619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206706</v>
+        <v>209969</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>255748</v>
+        <v>255232</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1675848791793165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1495593984927432</v>
+        <v>0.1519201818572315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1850429907007175</v>
+        <v>0.1846695131093827</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>477270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>459462</v>
+        <v>460823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>494569</v>
+        <v>494059</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8331578917598037</v>
+        <v>0.8331578917598038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8020706664798781</v>
+        <v>0.8044463530738385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8633555551042484</v>
+        <v>0.8624658734346756</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1178</v>
@@ -4157,19 +4157,19 @@
         <v>673211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>655359</v>
+        <v>656022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>688826</v>
+        <v>689747</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8318893385456756</v>
+        <v>0.8318893385456757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8098295214768197</v>
+        <v>0.8106479402823961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.851184437654001</v>
+        <v>0.8523218099199436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1752</v>
@@ -4178,19 +4178,19 @@
         <v>1150483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1126354</v>
+        <v>1126870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1175396</v>
+        <v>1172133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8324151208206833</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8149570092992826</v>
+        <v>0.8153304868906174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8504406015072571</v>
+        <v>0.8480798181427686</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>570873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>527300</v>
+        <v>521917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>625507</v>
+        <v>616778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2576737651636873</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2380063042102664</v>
+        <v>0.2355766624314574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2823340462850727</v>
+        <v>0.278394165332464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>910</v>
@@ -4303,19 +4303,19 @@
         <v>684814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>643958</v>
+        <v>644839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>726444</v>
+        <v>722702</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3182084244859815</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2992239370842579</v>
+        <v>0.2996334079950785</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3375523939657608</v>
+        <v>0.3358135784303029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1391</v>
@@ -4324,19 +4324,19 @@
         <v>1255687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1189746</v>
+        <v>1188895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1321676</v>
+        <v>1320665</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2875017884973756</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2724039445417617</v>
+        <v>0.272209040122474</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3026104168162746</v>
+        <v>0.3023790180454243</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1644613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1589979</v>
+        <v>1598708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1688186</v>
+        <v>1693569</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7423262348363124</v>
+        <v>0.7423262348363125</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7176659537149271</v>
+        <v>0.7216058346675358</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7619936957897333</v>
+        <v>0.7644233375685424</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1984</v>
@@ -4374,19 +4374,19 @@
         <v>1467280</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1425650</v>
+        <v>1429392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1508136</v>
+        <v>1507255</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6817915755140183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.662447606034239</v>
+        <v>0.664186421569697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7007760629157421</v>
+        <v>0.7003665920049214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3483</v>
@@ -4395,19 +4395,19 @@
         <v>3111894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3045905</v>
+        <v>3046916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3177835</v>
+        <v>3178686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7124982115026244</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6973895831837253</v>
+        <v>0.6976209819545757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7275960554582384</v>
+        <v>0.727790959877526</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>253239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226195</v>
+        <v>228011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>281556</v>
+        <v>280993</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3579031340187737</v>
+        <v>0.3579031340187738</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3196826685726655</v>
+        <v>0.3222484582066973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3979237151297286</v>
+        <v>0.3971285105143563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>433</v>
@@ -4520,19 +4520,19 @@
         <v>329009</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>305330</v>
+        <v>305287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>354423</v>
+        <v>350664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4502209399261887</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4178178306996171</v>
+        <v>0.417759275071827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4849979760957961</v>
+        <v>0.4798531563878277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>671</v>
@@ -4541,19 +4541,19 @@
         <v>582248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>542817</v>
+        <v>544175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>617716</v>
+        <v>622652</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4048069440187151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3773925634159317</v>
+        <v>0.3783365389629851</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4294657144577483</v>
+        <v>0.4328977709627081</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>454323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>426006</v>
+        <v>426569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481367</v>
+        <v>479551</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6420968659812262</v>
+        <v>0.6420968659812264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6020762848702712</v>
+        <v>0.6028714894856437</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6803173314273346</v>
+        <v>0.6777515417933029</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>566</v>
@@ -4591,19 +4591,19 @@
         <v>401764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>376350</v>
+        <v>380109</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>425443</v>
+        <v>425486</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5497790600738114</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5150020239042038</v>
+        <v>0.5201468436121722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5821821693003829</v>
+        <v>0.582240724928173</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1005</v>
@@ -4612,19 +4612,19 @@
         <v>856087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>820619</v>
+        <v>815683</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>895518</v>
+        <v>894160</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5951930559812849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5705342855422518</v>
+        <v>0.5671022290372923</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6226074365840684</v>
+        <v>0.6216634610370152</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>919686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>854104</v>
+        <v>865899</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>978070</v>
+        <v>981608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2630761056747861</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2443162820956056</v>
+        <v>0.2476902996001161</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2797769012473635</v>
+        <v>0.2807888421735615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1573</v>
@@ -4737,19 +4737,19 @@
         <v>1149869</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1098891</v>
+        <v>1099933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1201493</v>
+        <v>1208229</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3114382487437921</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2976310633600623</v>
+        <v>0.2979133575402541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3254204123334763</v>
+        <v>0.3272449328127928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2402</v>
@@ -4758,19 +4758,19 @@
         <v>2069555</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1989342</v>
+        <v>1989041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2151001</v>
+        <v>2142800</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2879173143069394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2767581495908818</v>
+        <v>0.27671625010648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2992481855762058</v>
+        <v>0.2981072357170798</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2576207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2517823</v>
+        <v>2514285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2641789</v>
+        <v>2629994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.736923894325214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7202230987526366</v>
+        <v>0.7192111578264386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7556837179043945</v>
+        <v>0.7523097003998841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3728</v>
@@ -4808,19 +4808,19 @@
         <v>2542255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2490631</v>
+        <v>2483895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2593233</v>
+        <v>2592191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6885617512562078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6745795876665236</v>
+        <v>0.6727550671872071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7023689366399378</v>
+        <v>0.7020866424597459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6240</v>
@@ -4829,19 +4829,19 @@
         <v>5118462</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5037016</v>
+        <v>5045217</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5198675</v>
+        <v>5198976</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7120826856930605</v>
+        <v>0.7120826856930607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7007518144237942</v>
+        <v>0.7018927642829204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7232418504091185</v>
+        <v>0.72328374989352</v>
       </c>
     </row>
     <row r="15">
